--- a/StructureDefinition-profile-CoverageEligibilityResponse.xlsx
+++ b/StructureDefinition-profile-CoverageEligibilityResponse.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="401">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6626579-06:00</t>
+    <t>2026-02-09T22:05:43.0601359-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -422,33 +422,60 @@
     <t>CoverageEligibilityResponse.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.extension:event</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityResponse.event|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CoverageEligibilityResponse.event from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Information code for an event with a corresponding date or period.</t>
+  </si>
+  <si>
+    <t>Element `CoverageEligibilityResponse.event` is will have a context of CoverageEligibilityResponse based on following the parent source element upwards and mapping to `CoverageEligibilityResponse`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityResponse.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -456,6 +483,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -741,6 +771,9 @@
     <t>CoverageEligibilityResponse.insurance.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -1181,6 +1214,25 @@
   </si>
   <si>
     <t>CoverageEligibilityResponse.error.extension</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.error.extension:expression</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityResponse.error.expression|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CoverageEligibilityResponse.error.expression from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A [simple subset of FHIRPath](https://hl7.org/fhir/fhirpat.html#simple) limited to element names, repetition indicators and the default child accessor that identifies one of the elements in the resource that caused this issue to be raised.</t>
+  </si>
+  <si>
+    <t>Element `CoverageEligibilityResponse.error.expression` is will have a context of CoverageEligibilityResponse.error based on following the parent source element upwards and mapping to `CoverageEligibilityResponse`.</t>
   </si>
   <si>
     <t>CoverageEligibilityResponse.error.modifierExtension</t>
@@ -1508,7 +1560,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN59"/>
+  <dimension ref="A1:AN61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1527,7 +1579,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="59.55859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="104.1875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2483,7 +2535,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2502,17 +2554,15 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2549,16 +2599,14 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>137</v>
@@ -2585,7 +2633,7 @@
         <v>77</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -2593,11 +2641,13 @@
         <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2610,26 +2660,24 @@
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2677,7 +2725,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2686,7 +2734,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>138</v>
@@ -2701,19 +2749,19 @@
         <v>77</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2726,23 +2774,25 @@
         <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O11" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>77</v>
@@ -2791,7 +2841,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2803,27 +2853,27 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2831,34 +2881,32 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
@@ -2883,13 +2931,13 @@
         <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>77</v>
@@ -2907,13 +2955,13 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>77</v>
@@ -2922,10 +2970,10 @@
         <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>77</v>
@@ -2936,10 +2984,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2950,13 +2998,13 @@
         <v>87</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>88</v>
@@ -2965,12 +3013,14 @@
         <v>107</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>164</v>
       </c>
@@ -2997,13 +3047,13 @@
         <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>77</v>
@@ -3021,13 +3071,13 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>77</v>
@@ -3036,10 +3086,10 @@
         <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -3050,10 +3100,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3064,7 +3114,7 @@
         <v>87</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -3076,17 +3126,17 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -3111,13 +3161,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -3135,13 +3185,13 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>77</v>
@@ -3150,13 +3200,13 @@
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3164,10 +3214,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3175,7 +3225,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>87</v>
@@ -3187,20 +3237,20 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3249,10 +3299,10 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>87</v>
@@ -3264,13 +3314,13 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3278,10 +3328,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3289,7 +3339,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>87</v>
@@ -3301,20 +3351,20 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3363,10 +3413,10 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>87</v>
@@ -3381,10 +3431,10 @@
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3392,10 +3442,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3403,7 +3453,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>87</v>
@@ -3415,21 +3465,21 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3477,10 +3527,10 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>87</v>
@@ -3495,10 +3545,10 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3506,10 +3556,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3517,7 +3567,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>87</v>
@@ -3529,21 +3579,21 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3591,10 +3641,10 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>87</v>
@@ -3606,13 +3656,13 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3620,10 +3670,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3646,19 +3696,17 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -3683,13 +3731,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3707,7 +3755,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>87</v>
@@ -3722,13 +3770,13 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3736,10 +3784,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3747,7 +3795,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>87</v>
@@ -3759,20 +3807,22 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="O20" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3797,13 +3847,13 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
@@ -3821,10 +3871,10 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>87</v>
@@ -3836,7 +3886,7 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -3850,10 +3900,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3861,7 +3911,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>87</v>
@@ -3873,20 +3923,20 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -3935,10 +3985,10 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>87</v>
@@ -3950,7 +4000,7 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -3964,10 +4014,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3975,10 +4025,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -3987,22 +4037,20 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4051,13 +4099,13 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
@@ -4080,10 +4128,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4094,7 +4142,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4106,16 +4154,20 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4169,13 +4221,13 @@
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>77</v>
@@ -4187,26 +4239,26 @@
         <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -4218,17 +4270,15 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>133</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>134</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4277,19 +4327,19 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
@@ -4301,19 +4351,19 @@
         <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>237</v>
+        <v>147</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4326,26 +4376,24 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4393,7 +4441,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4417,48 +4465,50 @@
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>130</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>242</v>
+        <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>245</v>
+        <v>151</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4507,19 +4557,19 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
@@ -4531,15 +4581,15 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4547,7 +4597,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>87</v>
@@ -4559,20 +4609,20 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4621,10 +4671,10 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>87</v>
@@ -4650,10 +4700,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4676,17 +4726,17 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4735,7 +4785,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4764,10 +4814,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4778,7 +4828,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -4790,16 +4840,18 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -4847,19 +4899,19 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>259</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
@@ -4876,10 +4928,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4890,7 +4942,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -4902,13 +4954,13 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4959,19 +5011,19 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
@@ -4983,26 +5035,26 @@
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5014,17 +5066,15 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>133</v>
+        <v>221</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>134</v>
+        <v>238</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5073,19 +5123,19 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
@@ -5097,19 +5147,19 @@
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>237</v>
+        <v>147</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5122,26 +5172,24 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5189,7 +5237,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5213,50 +5261,50 @@
         <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>130</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>264</v>
+        <v>132</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5281,13 +5329,13 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
@@ -5305,19 +5353,19 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
@@ -5329,19 +5377,19 @@
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5360,19 +5408,19 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5397,13 +5445,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5421,7 +5469,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5450,21 +5498,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5476,19 +5524,19 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5513,13 +5561,13 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
@@ -5537,13 +5585,13 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
@@ -5566,10 +5614,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5580,7 +5628,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5592,17 +5640,19 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O36" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5627,13 +5677,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -5651,13 +5701,13 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
@@ -5669,10 +5719,10 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5680,10 +5730,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5706,17 +5756,17 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>247</v>
+        <v>298</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5765,7 +5815,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5783,10 +5833,10 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -5794,10 +5844,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5820,19 +5870,17 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5881,7 +5929,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5910,10 +5958,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5936,19 +5984,19 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -5997,7 +6045,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6026,10 +6074,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6052,17 +6100,19 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6087,31 +6137,31 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6140,10 +6190,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6166,17 +6216,17 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6201,31 +6251,31 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6254,10 +6304,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6280,17 +6330,17 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6315,31 +6365,31 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Z42" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF42" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6368,10 +6418,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6382,7 +6432,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6394,16 +6444,18 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>223</v>
+        <v>274</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="M43" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6427,13 +6479,13 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>331</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>77</v>
+        <v>332</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -6451,13 +6503,13 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
@@ -6480,10 +6532,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6494,7 +6546,7 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6506,13 +6558,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>229</v>
+        <v>334</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>230</v>
+        <v>335</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6563,19 +6615,19 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>231</v>
+        <v>333</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
@@ -6587,26 +6639,26 @@
         <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6618,17 +6670,15 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>133</v>
+        <v>221</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>134</v>
+        <v>238</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6677,19 +6727,19 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
@@ -6701,19 +6751,19 @@
         <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>237</v>
+        <v>147</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6726,26 +6776,24 @@
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
       </c>
@@ -6793,7 +6841,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6817,50 +6865,50 @@
         <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>130</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>264</v>
+        <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>330</v>
+        <v>249</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>331</v>
+        <v>150</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>332</v>
+        <v>151</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -6885,13 +6933,13 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -6909,19 +6957,19 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>329</v>
+        <v>250</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
@@ -6933,15 +6981,15 @@
         <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6949,7 +6997,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>87</v>
@@ -6964,17 +7012,19 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>336</v>
+        <v>274</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>337</v>
+        <v>275</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O48" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6999,13 +7049,13 @@
         <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>343</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>77</v>
+        <v>344</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>77</v>
@@ -7023,10 +7073,10 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>87</v>
@@ -7052,10 +7102,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7078,17 +7128,17 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7137,7 +7187,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7166,10 +7216,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7192,17 +7242,17 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>247</v>
+        <v>346</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7251,7 +7301,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7280,10 +7330,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7294,7 +7344,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7306,17 +7356,17 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7341,13 +7391,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>353</v>
+        <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7365,13 +7415,13 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
@@ -7394,10 +7444,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7408,7 +7458,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7420,17 +7470,17 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>101</v>
+        <v>274</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7455,13 +7505,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -7479,13 +7529,13 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
@@ -7508,10 +7558,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7534,17 +7584,17 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7593,7 +7643,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7614,18 +7664,18 @@
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>362</v>
+        <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>363</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7648,19 +7698,17 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -7685,13 +7733,13 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>370</v>
+        <v>77</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -7709,7 +7757,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7730,18 +7778,18 @@
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7752,7 +7800,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -7764,17 +7812,19 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>223</v>
+        <v>274</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O55" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7799,13 +7849,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>77</v>
+        <v>379</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>77</v>
+        <v>380</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -7823,13 +7873,13 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
@@ -7844,7 +7894,7 @@
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>77</v>
+        <v>381</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -7852,10 +7902,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7866,7 +7916,7 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -7878,16 +7928,18 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>229</v>
+        <v>383</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>230</v>
+        <v>384</v>
       </c>
       <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
@@ -7935,19 +7987,19 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>231</v>
+        <v>382</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
@@ -7959,26 +8011,26 @@
         <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -7990,17 +8042,15 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>133</v>
+        <v>221</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>134</v>
+        <v>238</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8049,19 +8099,19 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
@@ -8073,19 +8123,19 @@
         <v>77</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8098,26 +8148,22 @@
         <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>238</v>
-      </c>
       <c r="M58" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8153,19 +8199,17 @@
         <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8189,26 +8233,28 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8220,18 +8266,18 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>264</v>
+        <v>390</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8255,13 +8301,13 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>383</v>
+        <v>77</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
@@ -8279,30 +8325,260 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>379</v>
+        <v>245</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN59" t="s" s="2">
+      <c r="AK61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-CoverageEligibilityResponse.xlsx
+++ b/StructureDefinition-profile-CoverageEligibilityResponse.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="405">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.0601359-06:00</t>
+    <t>2026-02-17T14:42:26.7797126-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -462,7 +462,7 @@
     <t>Information code for an event with a corresponding date or period.</t>
   </si>
   <si>
-    <t>Element `CoverageEligibilityResponse.event` is will have a context of CoverageEligibilityResponse based on following the parent source element upwards and mapping to `CoverageEligibilityResponse`.</t>
+    <t>Element `CoverageEligibilityResponse.event` has a context of CoverageEligibilityResponse based on following the parent source element upwards and mapping to `CoverageEligibilityResponse`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -771,13 +771,23 @@
     <t>CoverageEligibilityResponse.insurance.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.insurance.extension:insurance</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityResponse.insurance|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CoverageEligibilityResponse.insurance from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `CoverageEligibilityResponse.insurance` has is mapped to FHIR R4 element `CoverageEligibilityResponse.insurance`, but has no comparisons.</t>
   </si>
   <si>
     <t>CoverageEligibilityResponse.insurance.modifierExtension</t>
@@ -864,6 +874,12 @@
     <t>CoverageEligibilityResponse.insurance.item.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>CoverageEligibilityResponse.insurance.item.modifierExtension</t>
   </si>
   <si>
@@ -1216,23 +1232,20 @@
     <t>CoverageEligibilityResponse.error.extension</t>
   </si>
   <si>
-    <t>CoverageEligibilityResponse.error.extension:expression</t>
-  </si>
-  <si>
-    <t>expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityResponse.error.expression|0.0.1-snapshot-3}
+    <t>CoverageEligibilityResponse.error.extension:error</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityResponse.error|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for CoverageEligibilityResponse.error.expression from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A [simple subset of FHIRPath](https://hl7.org/fhir/fhirpat.html#simple) limited to element names, repetition indicators and the default child accessor that identifies one of the elements in the resource that caused this issue to be raised.</t>
-  </si>
-  <si>
-    <t>Element `CoverageEligibilityResponse.error.expression` is will have a context of CoverageEligibilityResponse.error based on following the parent source element upwards and mapping to `CoverageEligibilityResponse`.</t>
+    <t>Cross-version extension for CoverageEligibilityResponse.error from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `CoverageEligibilityResponse.error` has is mapped to FHIR R4 element `CoverageEligibilityResponse.error`, but has no comparisons.</t>
   </si>
   <si>
     <t>CoverageEligibilityResponse.error.modifierExtension</t>
@@ -1560,7 +1573,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN61"/>
+  <dimension ref="A1:AN62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1579,7 +1592,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="104.1875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="98.7734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4363,7 +4376,7 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4385,14 +4398,12 @@
         <v>132</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
+        <v>133</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4429,19 +4440,17 @@
         <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4465,19 +4474,21 @@
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="D26" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4490,26 +4501,24 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>132</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4557,7 +4566,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4566,7 +4575,7 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>138</v>
@@ -4581,48 +4590,50 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O27" t="s" s="2">
-        <v>255</v>
+        <v>151</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4671,19 +4682,19 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
@@ -4695,15 +4706,15 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4711,7 +4722,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>87</v>
@@ -4723,20 +4734,20 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4785,10 +4796,10 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>87</v>
@@ -4814,10 +4825,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4840,17 +4851,17 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4899,7 +4910,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4928,10 +4939,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4942,7 +4953,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -4954,16 +4965,18 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5011,19 +5024,19 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>269</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
@@ -5040,10 +5053,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5054,7 +5067,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5066,13 +5079,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5123,19 +5136,19 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
@@ -5147,26 +5160,26 @@
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5178,17 +5191,15 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>132</v>
+        <v>221</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5237,19 +5248,19 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
@@ -5266,14 +5277,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>247</v>
+        <v>147</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5286,26 +5297,24 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="O33" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5353,7 +5362,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5377,50 +5386,50 @@
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>130</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>274</v>
+        <v>132</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>277</v>
+        <v>150</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>278</v>
+        <v>151</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5445,13 +5454,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5469,19 +5478,19 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
@@ -5493,19 +5502,19 @@
         <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5524,19 +5533,19 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5561,13 +5570,13 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
@@ -5585,7 +5594,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5614,21 +5623,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5640,19 +5649,19 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5677,13 +5686,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -5701,13 +5710,13 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
@@ -5730,10 +5739,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5744,7 +5753,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -5756,17 +5765,19 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5791,13 +5802,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -5815,13 +5826,13 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
@@ -5833,10 +5844,10 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -5870,17 +5881,17 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5947,10 +5958,10 @@
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -5958,10 +5969,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5984,17 +5995,15 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N39" t="s" s="2">
         <v>309</v>
       </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>310</v>
       </c>
@@ -6045,7 +6054,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6216,7 +6225,7 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>274</v>
+        <v>221</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>317</v>
@@ -6224,9 +6233,11 @@
       <c r="M41" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6251,13 +6262,13 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>77</v>
@@ -6304,10 +6315,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6330,17 +6341,17 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6365,14 +6376,14 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>327</v>
-      </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6389,7 +6400,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6418,10 +6429,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6444,17 +6455,17 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6479,7 +6490,7 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Y43" t="s" s="2">
         <v>331</v>
@@ -6503,7 +6514,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6546,7 +6557,7 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6558,7 +6569,7 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>334</v>
@@ -6567,7 +6578,9 @@
         <v>335</v>
       </c>
       <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6591,13 +6604,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>336</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>337</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6621,7 +6634,7 @@
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
@@ -6644,10 +6657,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6658,7 +6671,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6670,13 +6683,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>238</v>
+        <v>339</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>239</v>
+        <v>340</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6727,19 +6740,19 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>240</v>
+        <v>338</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
@@ -6751,26 +6764,26 @@
         <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -6782,17 +6795,15 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>132</v>
+        <v>221</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6841,19 +6852,19 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
@@ -6870,14 +6881,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>247</v>
+        <v>147</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6890,26 +6901,24 @@
         <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="O47" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -6957,7 +6966,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6981,50 +6990,50 @@
         <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>130</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>274</v>
+        <v>132</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>341</v>
+        <v>150</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>342</v>
+        <v>151</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7049,13 +7058,13 @@
         <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>343</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>344</v>
+        <v>77</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>77</v>
@@ -7073,19 +7082,19 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>339</v>
+        <v>253</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
@@ -7097,15 +7106,15 @@
         <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7113,7 +7122,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>87</v>
@@ -7128,17 +7137,19 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7163,13 +7174,13 @@
         <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>77</v>
+        <v>348</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>77</v>
@@ -7187,10 +7198,10 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>87</v>
@@ -7242,17 +7253,17 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7330,10 +7341,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7356,17 +7367,17 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>257</v>
+        <v>351</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7415,7 +7426,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7444,10 +7455,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7458,7 +7469,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7470,17 +7481,17 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7505,13 +7516,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>362</v>
+        <v>77</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>363</v>
+        <v>77</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -7529,13 +7540,13 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
@@ -7558,10 +7569,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7572,7 +7583,7 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -7584,17 +7595,17 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>101</v>
+        <v>279</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7619,13 +7630,13 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>77</v>
+        <v>367</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -7643,13 +7654,13 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
@@ -7672,10 +7683,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7698,17 +7709,17 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>221</v>
+        <v>101</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -7757,7 +7768,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7778,18 +7789,18 @@
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>372</v>
+        <v>77</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7812,19 +7823,17 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>274</v>
+        <v>221</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7849,13 +7858,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>379</v>
+        <v>77</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>380</v>
+        <v>77</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -7873,7 +7882,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7894,18 +7903,18 @@
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>77</v>
+        <v>378</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7916,7 +7925,7 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -7928,17 +7937,19 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="O56" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -7963,13 +7974,13 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -7987,13 +7998,13 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
@@ -8008,7 +8019,7 @@
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>77</v>
+        <v>386</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8016,10 +8027,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8030,7 +8041,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8042,16 +8053,18 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>238</v>
+        <v>388</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>239</v>
+        <v>389</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8099,19 +8112,19 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>240</v>
+        <v>387</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
@@ -8123,15 +8136,15 @@
         <v>77</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8142,7 +8155,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8154,13 +8167,13 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>132</v>
+        <v>221</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>133</v>
+        <v>238</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>134</v>
+        <v>239</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8199,29 +8212,31 @@
         <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC58" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
@@ -8233,19 +8248,17 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8266,17 +8279,15 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>390</v>
+        <v>132</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>391</v>
+        <v>133</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8313,19 +8324,17 @@
         <v>77</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8334,7 +8343,7 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>138</v>
@@ -8354,14 +8363,16 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="C60" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="B60" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8374,26 +8385,24 @@
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>132</v>
+        <v>395</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>248</v>
+        <v>396</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>249</v>
+        <v>389</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8441,7 +8450,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8450,7 +8459,7 @@
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>138</v>
@@ -8465,48 +8474,50 @@
         <v>77</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>274</v>
+        <v>132</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>396</v>
+        <v>251</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O61" t="s" s="2">
-        <v>398</v>
+        <v>151</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8531,54 +8542,168 @@
         <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="Y61" t="s" s="2">
+      <c r="L62" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF62" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
+      <c r="AG62" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AK62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-CoverageEligibilityResponse.xlsx
+++ b/StructureDefinition-profile-CoverageEligibilityResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7797126-06:00</t>
+    <t>2026-02-20T11:59:20.7750277-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CoverageEligibilityResponse|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/CoverageEligibilityResponse</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -452,7 +452,7 @@
     <t>event</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityResponse.event|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityResponse.event}
 </t>
   </si>
   <si>
@@ -780,7 +780,7 @@
     <t>insurance</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityResponse.insurance|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityResponse.insurance}
 </t>
   </si>
   <si>
@@ -1238,7 +1238,7 @@
     <t>error</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityResponse.error|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityResponse.error}
 </t>
   </si>
   <si>
@@ -1592,7 +1592,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="98.7734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="84.359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-CoverageEligibilityResponse.xlsx
+++ b/StructureDefinition-profile-CoverageEligibilityResponse.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="401">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7750277-06:00</t>
+    <t>2026-02-21T13:36:54.1835703-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CoverageEligibilityResponse</t>
+    <t>http://hl7.org/fhir/StructureDefinition/CoverageEligibilityResponse|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -452,7 +452,7 @@
     <t>event</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityResponse.event}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityResponse.event|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -771,23 +771,13 @@
     <t>CoverageEligibilityResponse.insurance.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityResponse.insurance.extension:insurance</t>
-  </si>
-  <si>
-    <t>insurance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityResponse.insurance}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CoverageEligibilityResponse.insurance from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `CoverageEligibilityResponse.insurance` has is mapped to FHIR R4 element `CoverageEligibilityResponse.insurance`, but has no comparisons.</t>
   </si>
   <si>
     <t>CoverageEligibilityResponse.insurance.modifierExtension</t>
@@ -874,12 +864,6 @@
     <t>CoverageEligibilityResponse.insurance.item.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>CoverageEligibilityResponse.insurance.item.modifierExtension</t>
   </si>
   <si>
@@ -1232,20 +1216,23 @@
     <t>CoverageEligibilityResponse.error.extension</t>
   </si>
   <si>
-    <t>CoverageEligibilityResponse.error.extension:error</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityResponse.error}
+    <t>CoverageEligibilityResponse.error.extension:expression</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityResponse.error.expression|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for CoverageEligibilityResponse.error from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `CoverageEligibilityResponse.error` has is mapped to FHIR R4 element `CoverageEligibilityResponse.error`, but has no comparisons.</t>
+    <t>Cross-version extension for CoverageEligibilityResponse.error.expression from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A [simple subset of FHIRPath](https://hl7.org/fhir/fhirpat.html#simple) limited to element names, repetition indicators and the default child accessor that identifies one of the elements in the resource that caused this issue to be raised.</t>
+  </si>
+  <si>
+    <t>Element `CoverageEligibilityResponse.error.expression` has a context of CoverageEligibilityResponse.error based on following the parent source element upwards and mapping to `CoverageEligibilityResponse`.</t>
   </si>
   <si>
     <t>CoverageEligibilityResponse.error.modifierExtension</t>
@@ -1573,7 +1560,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN62"/>
+  <dimension ref="A1:AN61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1592,7 +1579,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="84.359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="104.1875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4376,7 +4363,7 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4398,12 +4385,14 @@
         <v>132</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>133</v>
+        <v>243</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4440,17 +4429,19 @@
         <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC25" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4474,21 +4465,19 @@
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4501,24 +4490,26 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>246</v>
+        <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4566,7 +4557,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4575,7 +4566,7 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>138</v>
@@ -4590,50 +4581,48 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>132</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>151</v>
+        <v>255</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4682,19 +4671,19 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
@@ -4706,15 +4695,15 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4722,7 +4711,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>87</v>
@@ -4734,20 +4723,20 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4796,10 +4785,10 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>87</v>
@@ -4825,10 +4814,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4851,17 +4840,17 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4910,7 +4899,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4939,10 +4928,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4953,7 +4942,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -4965,18 +4954,16 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>268</v>
-      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5024,19 +5011,19 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>269</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
@@ -5053,10 +5040,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5067,7 +5054,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5079,13 +5066,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5136,19 +5123,19 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
@@ -5160,26 +5147,26 @@
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5191,15 +5178,17 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>221</v>
+        <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5248,19 +5237,19 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
@@ -5277,14 +5266,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>147</v>
+        <v>247</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5297,24 +5286,26 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="O33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5362,7 +5353,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5386,50 +5377,50 @@
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>241</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>132</v>
+        <v>274</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>150</v>
+        <v>277</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>151</v>
+        <v>278</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5454,13 +5445,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5478,19 +5469,19 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
@@ -5502,19 +5493,19 @@
         <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5533,19 +5524,19 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5570,13 +5561,13 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
@@ -5594,7 +5585,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5623,21 +5614,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5649,19 +5640,19 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5686,13 +5677,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -5710,13 +5701,13 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
@@ -5739,10 +5730,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5753,7 +5744,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -5765,19 +5756,17 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5802,13 +5791,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -5826,13 +5815,13 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
@@ -5844,10 +5833,10 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -5881,17 +5870,17 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5958,10 +5947,10 @@
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -5969,10 +5958,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5995,15 +5984,17 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>310</v>
       </c>
@@ -6054,7 +6045,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6225,7 +6216,7 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>317</v>
@@ -6233,11 +6224,9 @@
       <c r="M41" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6262,13 +6251,13 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>77</v>
@@ -6315,10 +6304,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6341,17 +6330,17 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6376,13 +6365,13 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
@@ -6400,7 +6389,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6429,10 +6418,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6455,17 +6444,17 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6490,7 +6479,7 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="Y43" t="s" s="2">
         <v>331</v>
@@ -6514,7 +6503,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6557,7 +6546,7 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6569,7 +6558,7 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>334</v>
@@ -6578,9 +6567,7 @@
         <v>335</v>
       </c>
       <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>330</v>
-      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6604,13 +6591,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>336</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6634,7 +6621,7 @@
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
@@ -6657,10 +6644,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6671,7 +6658,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6683,13 +6670,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>339</v>
+        <v>238</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>340</v>
+        <v>239</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6740,19 +6727,19 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>338</v>
+        <v>240</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
@@ -6764,26 +6751,26 @@
         <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -6795,15 +6782,17 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>221</v>
+        <v>132</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6852,19 +6841,19 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
@@ -6881,14 +6870,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>147</v>
+        <v>247</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6901,24 +6890,26 @@
         <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="O47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -6966,7 +6957,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6990,50 +6981,50 @@
         <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>241</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>132</v>
+        <v>274</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>252</v>
+        <v>340</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>150</v>
+        <v>341</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>151</v>
+        <v>342</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7058,13 +7049,13 @@
         <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>343</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>77</v>
+        <v>344</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>77</v>
@@ -7082,19 +7073,19 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>253</v>
+        <v>339</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
@@ -7106,15 +7097,15 @@
         <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7122,7 +7113,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>87</v>
@@ -7137,19 +7128,17 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>279</v>
+        <v>346</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>280</v>
+        <v>347</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7174,13 +7163,13 @@
         <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>349</v>
+        <v>77</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>77</v>
@@ -7198,10 +7187,10 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>87</v>
@@ -7253,17 +7242,17 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7341,10 +7330,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7367,17 +7356,17 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>351</v>
+        <v>257</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7426,7 +7415,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7455,10 +7444,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7469,7 +7458,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7481,17 +7470,17 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7516,13 +7505,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -7540,13 +7529,13 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
@@ -7569,10 +7558,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7583,7 +7572,7 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -7595,17 +7584,17 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>279</v>
+        <v>101</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7630,13 +7619,13 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>367</v>
+        <v>77</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -7654,13 +7643,13 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
@@ -7683,10 +7672,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7709,17 +7698,17 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>101</v>
+        <v>221</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -7768,7 +7757,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7789,18 +7778,18 @@
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7823,17 +7812,19 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O55" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7858,13 +7849,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>77</v>
+        <v>379</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>77</v>
+        <v>380</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -7882,7 +7873,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7903,18 +7894,18 @@
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>378</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7925,7 +7916,7 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -7937,19 +7928,17 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -7974,13 +7963,13 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>385</v>
+        <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -7998,13 +7987,13 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
@@ -8019,7 +8008,7 @@
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>386</v>
+        <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8027,10 +8016,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8041,7 +8030,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8053,18 +8042,16 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>388</v>
+        <v>238</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>389</v>
+        <v>239</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>390</v>
-      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8112,19 +8099,19 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>387</v>
+        <v>240</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
@@ -8136,15 +8123,15 @@
         <v>77</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8155,7 +8142,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8167,13 +8154,13 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>221</v>
+        <v>132</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>238</v>
+        <v>133</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>239</v>
+        <v>134</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8212,31 +8199,29 @@
         <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
@@ -8248,17 +8233,19 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8279,15 +8266,17 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>132</v>
+        <v>390</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>133</v>
+        <v>391</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8324,17 +8313,19 @@
         <v>77</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC59" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8343,7 +8334,7 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>138</v>
@@ -8363,16 +8354,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="C60" t="s" s="2">
         <v>394</v>
       </c>
+      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8385,24 +8374,26 @@
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>395</v>
+        <v>132</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>396</v>
+        <v>248</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>389</v>
+        <v>249</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8450,7 +8441,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8459,7 +8450,7 @@
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>138</v>
@@ -8474,50 +8465,48 @@
         <v>77</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>132</v>
+        <v>274</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>251</v>
+        <v>396</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>151</v>
+        <v>398</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8542,13 +8531,13 @@
         <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>77</v>
+        <v>399</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>77</v>
+        <v>400</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>77</v>
@@ -8566,19 +8555,19 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>253</v>
+        <v>395</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>77</v>
@@ -8590,120 +8579,6 @@
         <v>77</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="P62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN62" t="s" s="2">
         <v>77</v>
       </c>
     </row>
